--- a/Fizyka_Sprawka/Lab2_Cw57c/Halotron (Recovered).xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Halotron (Recovered).xlsx
@@ -17,7 +17,6 @@
     <sheet name="V2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,6 +319,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -329,6 +335,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,22 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,16 +442,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -481,16 +477,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1562,8 +1555,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="965777" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -1735,7 +1728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -1855,8 +1848,8 @@
       <xdr:rowOff>86457</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2395592" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -2095,7 +2088,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -2294,8 +2287,8 @@
       <xdr:rowOff>64191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1749390" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -2464,7 +2457,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -2572,8 +2565,8 @@
       <xdr:rowOff>93147</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2860114" cy="172087"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -2665,7 +2658,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -2749,8 +2742,8 @@
       <xdr:rowOff>79874</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1279196" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2934,7 +2927,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -3012,8 +3005,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183640" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3089,7 +3082,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3160,8 +3153,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="181845" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -3238,7 +3231,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -3304,8 +3297,8 @@
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="489558" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -3426,7 +3419,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -3520,8 +3513,8 @@
       <xdr:rowOff>35472</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="965777" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -3693,7 +3686,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -3813,8 +3806,8 @@
       <xdr:rowOff>7316</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368884" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -3908,7 +3901,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -3979,8 +3972,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1980029" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -4250,7 +4243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -4381,8 +4374,8 @@
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3743739" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -4493,7 +4486,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4506,7 +4499,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4520,7 +4513,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5296,7 +5289,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -5867,8 +5860,8 @@
       <xdr:rowOff>12574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737446" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -5996,7 +5989,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -6088,8 +6081,8 @@
       <xdr:rowOff>51424</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532582" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -6243,7 +6236,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -6308,8 +6301,8 @@
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="506101" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -6437,7 +6430,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -6529,8 +6522,8 @@
       <xdr:rowOff>29279</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="552178" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -6653,7 +6646,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -6718,8 +6711,8 @@
       <xdr:rowOff>100411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1349600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -6876,7 +6869,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -6963,8 +6956,8 @@
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1288494" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28"/>
@@ -7090,7 +7083,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28"/>
@@ -7177,8 +7170,8 @@
       <xdr:rowOff>136693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3743739" cy="550728"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -7719,7 +7712,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -7973,8 +7966,8 @@
       <xdr:rowOff>32904</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3743739" cy="550728"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -8487,7 +8480,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -8741,8 +8734,8 @@
       <xdr:rowOff>186558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1347998" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -9016,7 +9009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -9117,8 +9110,8 @@
       <xdr:rowOff>68316</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2291909" cy="350865"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9647,7 +9640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9826,8 +9819,8 @@
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2558714" cy="322396"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -10337,7 +10330,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -10504,8 +10497,8 @@
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2561342" cy="350865"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32"/>
@@ -11089,7 +11082,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32"/>
@@ -11268,8 +11261,8 @@
       <xdr:rowOff>170037</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7504043" cy="880562"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -11396,7 +11389,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11409,7 +11402,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11423,7 +11416,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -12832,7 +12825,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -13568,8 +13561,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627992" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -13754,7 +13747,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -13867,8 +13860,8 @@
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="321498" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -13962,7 +13955,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -14033,8 +14026,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="530273" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -14070,7 +14063,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
@@ -14193,7 +14185,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -14309,8 +14301,8 @@
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="676917" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -14473,7 +14465,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -14612,8 +14604,8 @@
       <xdr:rowOff>60247</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616387" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -14708,7 +14700,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -14771,7 +14763,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -14878,8 +14870,8 @@
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="875496" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38"/>
@@ -15053,7 +15045,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -15067,7 +15059,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15083,7 +15075,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15100,7 +15092,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15112,7 +15104,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15127,7 +15119,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15141,7 +15133,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -15155,7 +15147,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38"/>
@@ -15304,8 +15296,8 @@
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="397929" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -15341,6 +15333,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15434,7 +15427,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -15522,8 +15515,8 @@
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="397929" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -15559,6 +15552,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15652,7 +15646,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -15770,8 +15764,8 @@
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1279196" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39"/>
@@ -15955,7 +15949,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39"/>
@@ -16033,8 +16027,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="734432" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -16162,7 +16156,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -16228,8 +16222,8 @@
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="753604" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41"/>
@@ -16357,7 +16351,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41"/>
@@ -16406,6 +16400,1032 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝛼−𝛼_0)〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>48040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1227708" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15329453" y="97735"/>
+              <a:ext cx="1227708" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>sin</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝛼</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗0.5)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15329453" y="97735"/>
+              <a:ext cx="1227708" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(sin⁡(𝛼−𝛼_0 )∗0.5)〗^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106018</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81169</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2688044" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16820322" y="81169"/>
+              <a:ext cx="2688044" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(0.5∗</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>cos</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝛼</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗2.886751345948129</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16820322" y="81169"/>
+              <a:ext cx="2688044" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(0.5∗cos⁡(𝛼−𝛼_0 )∗2.886751345948129</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2896947" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19671196" y="74544"/>
+              <a:ext cx="2896947" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(0.5∗</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>cos</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝛼</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗2.886751345948129</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19671196" y="74544"/>
+              <a:ext cx="2896947" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0.5∗cos⁡(𝛼−𝛼_0 )∗2.886751345948129</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -16429,8 +17449,8 @@
       <cdr:x>0.99895</cdr:x>
       <cdr:y>0.52231</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 20"/>
@@ -16596,7 +17616,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 20"/>
@@ -16756,8 +17776,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="965777" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -16929,7 +17949,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -17092,8 +18112,8 @@
       <xdr:rowOff>86457</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2395592" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -17332,7 +18352,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -17531,8 +18551,8 @@
       <xdr:rowOff>64191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1749390" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -17701,7 +18721,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -17809,8 +18829,8 @@
       <xdr:rowOff>93147</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2860114" cy="172087"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -17902,7 +18922,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -18246,14 +19266,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
@@ -18263,49 +19284,52 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="42.85546875" customWidth="1"/>
+    <col min="17" max="17" width="45" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
@@ -18318,516 +19342,672 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
-        <f>0.5*M3</f>
+      <c r="B3" s="18">
+        <f t="shared" ref="B3:B38" si="0">0.5*M3</f>
         <v>-4.5732321116218597E-2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24">
+      <c r="C3" s="18">
+        <f>SQRT(O3+Q3)</f>
+        <v>2.033199619306977</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18">
         <v>23.77</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <f>RADIANS(H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <v>2.8867513460000001</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24">
-        <f>SIN(I3-3.05)</f>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18">
+        <f t="shared" ref="M3:M38" si="1">SIN(I3-3.05)</f>
         <v>-9.1464642232437193E-2</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="18">
         <f>COS(I3-3.05)</f>
         <v>-0.99580832453906121</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="O3" s="17">
+        <f>POWER(M3*0.5,2)</f>
+        <v>2.0914451946769334E-3</v>
+      </c>
+      <c r="P3" s="17">
+        <f>POWER(N3*2.88675134594812*0.5,2)</f>
+        <v>2.0659046233776799</v>
+      </c>
+      <c r="Q3" s="17">
+        <f>2*P3</f>
+        <v>4.1318092467553598</v>
+      </c>
       <c r="R3" s="17"/>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
-        <f>0.5*M4</f>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
         <v>-0.13149769482937945</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24">
+      <c r="C4" s="18">
+        <f>SQRT(O4+Q4)</f>
+        <v>1.9737690462635376</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <v>53.24</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18">
         <v>10</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <f>RADIANS(H4)</f>
         <v>0.17453292519943295</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24">
-        <f>SIN(I4-3.05)</f>
+      <c r="J4" s="25"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18">
+        <f t="shared" si="1"/>
         <v>-0.2629953896587589</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="18">
         <f>COS(I4-3.05)</f>
         <v>-0.96479709007554415</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="O4" s="17">
+        <f>POWER(M4*0.5,2)</f>
+        <v>1.7291643745440607E-2</v>
+      </c>
+      <c r="P4" s="17">
+        <f>POWER(N4*2.88675134594812*0.5,2)</f>
+        <v>1.9392363021213168</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>2*P4</f>
+        <v>3.8784726042426336</v>
+      </c>
       <c r="R4" s="17"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
-        <f>0.5*M5</f>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
         <v>-0.21326757762619408</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24">
+      <c r="C5" s="18">
+        <f>SQRT(O5+Q5)</f>
+        <v>1.8585205761278993</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
         <v>81.62</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
         <v>20</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <f>RADIANS(H5)</f>
         <v>0.3490658503988659</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24">
-        <f>SIN(I5-3.05)</f>
+      <c r="J5" s="25"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
+        <f t="shared" si="1"/>
         <v>-0.42653515525238817</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="18">
         <f>COS(I5-3.05)</f>
         <v>-0.90447098424096561</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="O5" s="17">
+        <f>POWER(M5*0.5,2)</f>
+        <v>4.5483059666544721E-2</v>
+      </c>
+      <c r="P5" s="17">
+        <f>POWER(N5*2.88675134594812*0.5,2)</f>
+        <v>1.7043078361121171</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>2*P5</f>
+        <v>3.4086156722242342</v>
+      </c>
       <c r="R5" s="17"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
-        <f>0.5*M6</f>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
         <v>-0.28855743299543807</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24">
+      <c r="C6" s="18">
+        <f t="shared" ref="C6:C38" si="2">SQRT(O6+Q6)</f>
+        <v>1.6917965371723303</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
         <v>108.74</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
         <v>30</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <f>RADIANS(H6)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24">
-        <f>SIN(I6-3.05)</f>
+      <c r="J6" s="25"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18">
+        <f t="shared" si="1"/>
         <v>-0.57711486599087614</v>
       </c>
-      <c r="N6" s="24">
-        <f t="shared" ref="N6:N38" si="0">COS(I6-3.05)</f>
+      <c r="N6" s="18">
+        <f t="shared" ref="N6:N38" si="3">COS(I6-3.05)</f>
         <v>-0.81666298523462733</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="O6" s="17">
+        <f t="shared" ref="O6:O38" si="4">POWER(M6*0.5,2)</f>
+        <v>8.3265392136916735E-2</v>
+      </c>
+      <c r="P6" s="17">
+        <f>POWER(N6*2.88675134594812*0.5,2)</f>
+        <v>1.3894550655256857</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>2*P6</f>
+        <v>2.7789101310513713</v>
+      </c>
       <c r="R6" s="17"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="20"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
-        <f>0.5*M7</f>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
         <v>-0.35507961678022237</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24">
+      <c r="C7" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4803341841308282</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18">
         <v>132.88999999999999</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <v>40</v>
       </c>
-      <c r="I7" s="24">
-        <f t="shared" ref="I7:I15" si="1">RADIANS(H7)</f>
+      <c r="I7" s="18">
+        <f t="shared" ref="I7:I15" si="5">RADIANS(H7)</f>
         <v>0.69813170079773179</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24">
-        <f>SIN(I7-3.05)</f>
+      <c r="J7" s="25"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
         <v>-0.71015923356044475</v>
       </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
+      <c r="N7" s="18">
+        <f t="shared" si="3"/>
         <v>-0.70404109467334486</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="17">
+        <f t="shared" si="4"/>
+        <v>0.12608153425278959</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" ref="P7:P38" si="6">POWER(N7*2.88675134594812*0.5,2)</f>
+        <v>1.0326538812267474</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>2*P7</f>
+        <v>2.0653077624534948</v>
+      </c>
       <c r="R7" s="17"/>
-      <c r="U7" s="20">
+      <c r="U7" s="23">
         <v>352.5</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
-        <f>0.5*M8</f>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
         <v>-0.41081288608809519</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24">
+      <c r="C8" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2339557411466795</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>152.19999999999999</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
         <v>50</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
+        <f t="shared" si="5"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18">
         <f t="shared" si="1"/>
-        <v>0.87266462599716477</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24">
-        <f>SIN(I8-3.05)</f>
         <v>-0.82162577217619037</v>
       </c>
-      <c r="N8" s="24">
-        <f t="shared" si="0"/>
+      <c r="N8" s="18">
+        <f t="shared" si="3"/>
         <v>-0.57002727171239698</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="O8" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16876722737603028</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="6"/>
+        <v>0.6769397718664103</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>2*P8</f>
+        <v>1.3538795437328206</v>
+      </c>
       <c r="R8" s="17"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="23"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
-        <f>0.5*M9</f>
+      <c r="B9" s="18">
+        <f t="shared" si="0"/>
         <v>-0.45406381373353216</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96778518513747291</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>168.38</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
         <v>60</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18">
         <f t="shared" si="1"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24">
-        <f>SIN(I9-3.05)</f>
         <v>-0.90812762746706432</v>
       </c>
-      <c r="N9" s="24">
-        <f t="shared" si="0"/>
+      <c r="N9" s="18">
+        <f t="shared" si="3"/>
         <v>-0.41869345854818529</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="O9" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20617394694223978</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="6"/>
+        <v>0.36521710881466651</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" ref="Q9:Q38" si="7">2*P9</f>
+        <v>0.73043421762933303</v>
+      </c>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
-        <f>0.5*M10</f>
+      <c r="B10" s="18">
+        <f t="shared" si="0"/>
         <v>-0.48351824216605199</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24">
+      <c r="C10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.70990026204498069</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18">
         <v>178.47</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
         <v>70</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18">
         <f t="shared" si="1"/>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24">
-        <f>SIN(I10-3.05)</f>
         <v>-0.96703648433210398</v>
       </c>
-      <c r="N10" s="24">
-        <f t="shared" si="0"/>
+      <c r="N10" s="18">
+        <f t="shared" si="3"/>
         <v>-0.25463785651509946</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O10" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23378989050734889</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="6"/>
+        <v>0.13508424577209166</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="7"/>
+        <v>0.27016849154418332</v>
+      </c>
       <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
-        <f>0.5*M11</f>
+      <c r="B11" s="18">
+        <f t="shared" si="0"/>
         <v>-0.49828121348239252</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24">
+      <c r="C11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.52619518484246131</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18">
         <v>182.28</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18">
         <v>80</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18">
         <f t="shared" si="1"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24">
-        <f>SIN(I11-3.05)</f>
         <v>-0.99656242696478503</v>
       </c>
-      <c r="N11" s="24">
-        <f t="shared" si="0"/>
+      <c r="N11" s="18">
+        <f t="shared" si="3"/>
         <v>-8.2845212064775228E-2</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O11" s="17">
+        <f t="shared" si="4"/>
+        <v>0.24828416770948564</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="6"/>
+        <v>1.4298602420953203E-2</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8597204841906407E-2</v>
+      </c>
       <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
-        <f>0.5*M12</f>
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
         <v>-0.4979041622695306</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24">
+      <c r="C12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.5317574397378988</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18">
         <v>180.39</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
         <v>90</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18">
         <f t="shared" si="1"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24">
-        <f>SIN(I12-3.05)</f>
         <v>-0.99580832453906121</v>
       </c>
-      <c r="N12" s="24">
-        <f t="shared" si="0"/>
+      <c r="N12" s="18">
+        <f t="shared" si="3"/>
         <v>9.1464642232437138E-2</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.24790855480532306</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="6"/>
+        <v>1.7428709955640984E-2</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4857419911281967E-2</v>
+      </c>
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
-        <f>0.5*M13</f>
+      <c r="B13" s="18">
+        <f t="shared" si="0"/>
         <v>-0.48239854503777202</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24">
+      <c r="C13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.72173569863113196</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>173.37</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
         <v>100</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18">
         <f t="shared" si="1"/>
-        <v>1.7453292519943295</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24">
-        <f>SIN(I13-3.05)</f>
         <v>-0.96479709007554404</v>
       </c>
-      <c r="N13" s="24">
-        <f t="shared" si="0"/>
+      <c r="N13" s="18">
+        <f t="shared" si="3"/>
         <v>0.26299538965875907</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23270835625455935</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="6"/>
+        <v>0.1440970312120044</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="7"/>
+        <v>0.2881940624240088</v>
+      </c>
       <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
-        <f>0.5*M14</f>
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
         <v>-0.45223549212048281</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24">
+      <c r="C14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98110546567423751</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
         <v>161.49</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
         <v>110</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18">
         <f t="shared" si="1"/>
-        <v>1.9198621771937625</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24">
-        <f>SIN(I14-3.05)</f>
         <v>-0.90447098424096561</v>
       </c>
-      <c r="N14" s="24">
-        <f t="shared" si="0"/>
+      <c r="N14" s="18">
+        <f t="shared" si="3"/>
         <v>0.42653515525238811</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20451694033345527</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="6"/>
+        <v>0.3790254972212036</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="7"/>
+        <v>0.7580509944424072</v>
+      </c>
       <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
-        <f>0.5*M15</f>
+      <c r="B15" s="18">
+        <f t="shared" si="0"/>
         <v>-0.40833149261731366</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24">
+      <c r="C15" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2467923417627946</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
         <v>144.5</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
         <v>120</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="18">
+        <f t="shared" si="5"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18">
         <f t="shared" si="1"/>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24">
-        <f>SIN(I15-3.05)</f>
         <v>-0.81666298523462733</v>
       </c>
-      <c r="N15" s="24">
-        <f t="shared" si="0"/>
+      <c r="N15" s="18">
+        <f t="shared" si="3"/>
         <v>0.57711486599087602</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16673460786308328</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="6"/>
+        <v>0.69387826780763506</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="7"/>
+        <v>1.3877565356152701</v>
+      </c>
       <c r="R15" s="17"/>
       <c r="S15" s="5"/>
       <c r="T15" s="6"/>
@@ -18838,41 +20018,53 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
-        <f>0.5*M16</f>
+      <c r="B16" s="18">
+        <f t="shared" si="0"/>
         <v>-0.35202054733667243</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24">
+      <c r="C16" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4917363607421912</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18">
         <v>122.1</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
         <v>130</v>
       </c>
-      <c r="I16" s="24">
-        <f t="shared" ref="I16:I27" si="2">RADIANS(H16)</f>
+      <c r="I16" s="18">
+        <f t="shared" ref="I16:I27" si="8">RADIANS(H16)</f>
         <v>2.2689280275926285</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24">
-        <f>SIN(I16-3.05)</f>
+      <c r="J16" s="25"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18">
+        <f t="shared" si="1"/>
         <v>-0.70404109467334486</v>
       </c>
-      <c r="N16" s="24">
-        <f t="shared" si="0"/>
+      <c r="N16" s="18">
+        <f t="shared" si="3"/>
         <v>0.71015923356044464</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O16" s="17">
+        <f t="shared" si="4"/>
+        <v>0.12391846574721044</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0506794521065732</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="7"/>
+        <v>2.1013589042131464</v>
+      </c>
       <c r="R16" s="17"/>
       <c r="S16" s="8" t="s">
         <v>4</v>
@@ -18892,41 +20084,53 @@
       <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
-        <f>0.5*M17</f>
+      <c r="B17" s="18">
+        <f t="shared" si="0"/>
         <v>-0.28501363585619849</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
+      <c r="C17" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7011819113656808</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18">
         <v>96.79</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
         <v>140</v>
       </c>
-      <c r="I17" s="24">
-        <f t="shared" si="2"/>
+      <c r="I17" s="18">
+        <f t="shared" si="8"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24">
-        <f>SIN(I17-3.05)</f>
+      <c r="J17" s="25"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
+        <f t="shared" si="1"/>
         <v>-0.57002727171239698</v>
       </c>
-      <c r="N17" s="24">
-        <f t="shared" si="0"/>
+      <c r="N17" s="18">
+        <f t="shared" si="3"/>
         <v>0.82162577217619037</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O17" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1232772623969718E-2</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="6"/>
+        <v>1.4063935614669107</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8127871229338215</v>
+      </c>
       <c r="R17" s="17"/>
       <c r="S17" s="11"/>
       <c r="T17" s="12"/>
@@ -18937,79 +20141,103 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
-        <f>0.5*M18</f>
+      <c r="B18" s="18">
+        <f t="shared" si="0"/>
         <v>-0.20934672927409245</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24">
+      <c r="C18" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8654914907592235</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18">
         <v>67.8</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18">
         <v>150</v>
       </c>
-      <c r="I18" s="24">
-        <f t="shared" si="2"/>
+      <c r="I18" s="18">
+        <f t="shared" si="8"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24">
-        <f>SIN(I18-3.05)</f>
+      <c r="J18" s="25"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18">
+        <f t="shared" si="1"/>
         <v>-0.4186934585481849</v>
       </c>
-      <c r="N18" s="24">
-        <f t="shared" si="0"/>
+      <c r="N18" s="18">
+        <f t="shared" si="3"/>
         <v>0.90812762746706444</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="17">
+        <f t="shared" si="4"/>
+        <v>4.3826053057760155E-2</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="6"/>
+        <v>1.718116224518655</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="7"/>
+        <v>3.43623244903731</v>
+      </c>
       <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
-        <f>0.5*M19</f>
+      <c r="B19" s="18">
+        <f t="shared" si="0"/>
         <v>-0.12731892825754976</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24">
+      <c r="C19" s="18">
+        <f t="shared" si="2"/>
+        <v>1.97805669398405</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
         <v>43.36</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18">
         <v>160</v>
       </c>
-      <c r="I19" s="24">
-        <f t="shared" si="2"/>
+      <c r="I19" s="18">
+        <f t="shared" si="8"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24">
-        <f>SIN(I19-3.05)</f>
+      <c r="J19" s="25"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18">
+        <f t="shared" si="1"/>
         <v>-0.25463785651509951</v>
       </c>
-      <c r="N19" s="24">
-        <f t="shared" si="0"/>
+      <c r="N19" s="18">
+        <f t="shared" si="3"/>
         <v>0.96703648433210398</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O19" s="17">
+        <f t="shared" si="4"/>
+        <v>1.6210109492651101E-2</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9482490875612295</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="7"/>
+        <v>3.896498175122459</v>
+      </c>
       <c r="R19" s="17"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -19018,41 +20246,53 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
-        <f>0.5*M20</f>
+      <c r="B20" s="18">
+        <f t="shared" si="0"/>
         <v>-4.1422606032387538E-2</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24">
+      <c r="C20" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0346462331607551</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
         <v>10.67</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18">
         <v>170</v>
       </c>
-      <c r="I20" s="24">
-        <f t="shared" si="2"/>
+      <c r="I20" s="18">
+        <f t="shared" si="8"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24">
-        <f>SIN(I20-3.05)</f>
+      <c r="J20" s="25"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18">
+        <f t="shared" si="1"/>
         <v>-8.2845212064775076E-2</v>
       </c>
-      <c r="N20" s="24">
-        <f t="shared" si="0"/>
+      <c r="N20" s="18">
+        <f t="shared" si="3"/>
         <v>0.99656242696478503</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7158322905143884E-3</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="6"/>
+        <v>2.0690347309123678</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="7"/>
+        <v>4.1380694618247356</v>
+      </c>
       <c r="R20" s="17"/>
       <c r="S20" s="8" t="s">
         <v>6</v>
@@ -19063,41 +20303,53 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="24">
-        <f>0.5*M21</f>
+      <c r="B21" s="18">
+        <f t="shared" si="0"/>
         <v>4.5732321116218534E-2</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24">
+      <c r="C21" s="18">
+        <f t="shared" si="2"/>
+        <v>2.033199619306977</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
         <v>-16.32</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
         <v>180</v>
       </c>
-      <c r="I21" s="24">
-        <f t="shared" si="2"/>
+      <c r="I21" s="18">
+        <f t="shared" si="8"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24">
-        <f>SIN(I21-3.05)</f>
+      <c r="J21" s="25"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18">
+        <f t="shared" si="1"/>
         <v>9.1464642232437068E-2</v>
       </c>
-      <c r="N21" s="24">
-        <f t="shared" si="0"/>
+      <c r="N21" s="18">
+        <f t="shared" si="3"/>
         <v>0.99580832453906121</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O21" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0914451946769277E-3</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="6"/>
+        <v>2.0659046233776799</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="7"/>
+        <v>4.1318092467553598</v>
+      </c>
       <c r="R21" s="17"/>
       <c r="S21" s="8"/>
       <c r="T21" s="9"/>
@@ -19106,41 +20358,53 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="24">
-        <f>0.5*M22</f>
+      <c r="B22" s="18">
+        <f t="shared" si="0"/>
         <v>0.13149769482937962</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24">
+      <c r="C22" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9737690462635376</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
         <v>-48.61</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18">
         <v>190</v>
       </c>
-      <c r="I22" s="24">
-        <f t="shared" si="2"/>
+      <c r="I22" s="18">
+        <f t="shared" si="8"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24">
-        <f>SIN(I22-3.05)</f>
+      <c r="J22" s="25"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18">
+        <f t="shared" si="1"/>
         <v>0.26299538965875924</v>
       </c>
-      <c r="N22" s="24">
-        <f t="shared" si="0"/>
+      <c r="N22" s="18">
+        <f t="shared" si="3"/>
         <v>0.96479709007554404</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O22" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7291643745440653E-2</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9392363021213168</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="7"/>
+        <v>3.8784726042426336</v>
+      </c>
       <c r="R22" s="17"/>
       <c r="S22" s="8"/>
       <c r="T22" s="9"/>
@@ -19149,41 +20413,53 @@
       <c r="W22" s="15"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="24">
-        <f>0.5*M23</f>
+      <c r="B23" s="18">
+        <f t="shared" si="0"/>
         <v>0.21326757762619403</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24">
+      <c r="C23" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8585205761278996</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18">
         <v>-75.37</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18">
         <v>200</v>
       </c>
-      <c r="I23" s="24">
-        <f t="shared" si="2"/>
+      <c r="I23" s="18">
+        <f t="shared" si="8"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24">
-        <f>SIN(I23-3.05)</f>
+      <c r="J23" s="25"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
+        <f t="shared" si="1"/>
         <v>0.42653515525238805</v>
       </c>
-      <c r="N23" s="24">
-        <f t="shared" si="0"/>
+      <c r="N23" s="18">
+        <f t="shared" si="3"/>
         <v>0.90447098424096573</v>
       </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O23" s="17">
+        <f t="shared" si="4"/>
+        <v>4.5483059666544694E-2</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="6"/>
+        <v>1.7043078361121176</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4086156722242351</v>
+      </c>
       <c r="R23" s="17"/>
       <c r="S23" s="8"/>
       <c r="T23" s="9"/>
@@ -19192,41 +20468,53 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="24">
-        <f>0.5*M24</f>
+      <c r="B24" s="18">
+        <f t="shared" si="0"/>
         <v>0.28855743299543818</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24">
+      <c r="C24" s="18">
+        <f t="shared" si="2"/>
+        <v>1.6917965371723298</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18">
         <v>-101.37</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18">
         <v>210</v>
       </c>
-      <c r="I24" s="24">
-        <f t="shared" si="2"/>
+      <c r="I24" s="18">
+        <f t="shared" si="8"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24">
-        <f>SIN(I24-3.05)</f>
+      <c r="J24" s="25"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
+        <f t="shared" si="1"/>
         <v>0.57711486599087636</v>
       </c>
-      <c r="N24" s="24">
-        <f t="shared" si="0"/>
+      <c r="N24" s="18">
+        <f t="shared" si="3"/>
         <v>0.8166629852346271</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O24" s="17">
+        <f t="shared" si="4"/>
+        <v>8.3265392136916791E-2</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="6"/>
+        <v>1.389455065525685</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="7"/>
+        <v>2.77891013105137</v>
+      </c>
       <c r="R24" s="17"/>
       <c r="S24" s="8">
         <v>353</v>
@@ -19242,41 +20530,53 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="24">
-        <f>0.5*M25</f>
+      <c r="B25" s="18">
+        <f t="shared" si="0"/>
         <v>0.35507961678022232</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24">
+      <c r="C25" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4803341841308284</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
         <v>-125.15</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18">
         <v>220</v>
       </c>
-      <c r="I25" s="24">
-        <f t="shared" si="2"/>
+      <c r="I25" s="18">
+        <f t="shared" si="8"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24">
-        <f>SIN(I25-3.05)</f>
+      <c r="J25" s="25"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
+        <f t="shared" si="1"/>
         <v>0.71015923356044464</v>
       </c>
-      <c r="N25" s="24">
-        <f t="shared" si="0"/>
+      <c r="N25" s="18">
+        <f t="shared" si="3"/>
         <v>0.70404109467334497</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O25" s="17">
+        <f t="shared" si="4"/>
+        <v>0.12608153425278953</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0326538812267478</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="7"/>
+        <v>2.0653077624534957</v>
+      </c>
       <c r="R25" s="17"/>
       <c r="S25" s="8"/>
       <c r="T25" s="9"/>
@@ -19285,41 +20585,53 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="24">
-        <f>0.5*M26</f>
+      <c r="B26" s="18">
+        <f t="shared" si="0"/>
         <v>0.41081288608809519</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24">
+      <c r="C26" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2339557411466797</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18">
         <v>-142</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24">
+      <c r="G26" s="18"/>
+      <c r="H26" s="18">
         <v>230</v>
       </c>
-      <c r="I26" s="24">
-        <f t="shared" si="2"/>
+      <c r="I26" s="18">
+        <f t="shared" si="8"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24">
-        <f>SIN(I26-3.05)</f>
+      <c r="J26" s="25"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
+        <f t="shared" si="1"/>
         <v>0.82162577217619037</v>
       </c>
-      <c r="N26" s="24">
-        <f t="shared" si="0"/>
+      <c r="N26" s="18">
+        <f t="shared" si="3"/>
         <v>0.57002727171239709</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O26" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16876722737603028</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.67693977186641052</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="7"/>
+        <v>1.353879543732821</v>
+      </c>
       <c r="R26" s="17"/>
       <c r="S26" s="8"/>
       <c r="T26" s="9"/>
@@ -19328,41 +20640,53 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="24">
-        <f>0.5*M27</f>
+      <c r="B27" s="18">
+        <f t="shared" si="0"/>
         <v>0.45406381373353211</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24">
+      <c r="C27" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96778518513747303</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18">
         <v>-156.9</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18">
         <v>240</v>
       </c>
-      <c r="I27" s="24">
-        <f t="shared" si="2"/>
+      <c r="I27" s="18">
+        <f t="shared" si="8"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24">
-        <f>SIN(I27-3.05)</f>
+      <c r="J27" s="25"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18">
+        <f t="shared" si="1"/>
         <v>0.90812762746706421</v>
       </c>
-      <c r="N27" s="24">
-        <f t="shared" si="0"/>
+      <c r="N27" s="18">
+        <f t="shared" si="3"/>
         <v>0.4186934585481854</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O27" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20617394694223973</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="6"/>
+        <v>0.36521710881466662</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.73043421762933325</v>
+      </c>
       <c r="R27" s="17"/>
       <c r="S27" s="11"/>
       <c r="T27" s="12"/>
@@ -19371,79 +20695,103 @@
       <c r="W27" s="13"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="24">
-        <f>0.5*M28</f>
+      <c r="B28" s="18">
+        <f t="shared" si="0"/>
         <v>0.48351824216605205</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
+      <c r="C28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.70990026204498025</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
         <v>-166.38</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18">
         <v>250</v>
       </c>
-      <c r="I28" s="24">
-        <f t="shared" ref="I28:I36" si="3">RADIANS(H28)</f>
+      <c r="I28" s="18">
+        <f t="shared" ref="I28:I36" si="9">RADIANS(H28)</f>
         <v>4.3633231299858242</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24">
-        <f>SIN(I28-3.05)</f>
+      <c r="J28" s="25"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18">
+        <f t="shared" si="1"/>
         <v>0.9670364843321041</v>
       </c>
-      <c r="N28" s="24">
-        <f t="shared" si="0"/>
+      <c r="N28" s="18">
+        <f t="shared" si="3"/>
         <v>0.25463785651509918</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O28" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23378989050734894</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="6"/>
+        <v>0.13508424577209135</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="7"/>
+        <v>0.27016849154418271</v>
+      </c>
       <c r="R28" s="17"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="24">
-        <f>0.5*M29</f>
+      <c r="B29" s="18">
+        <f t="shared" si="0"/>
         <v>0.49828121348239252</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
+      <c r="C29" s="18">
+        <f t="shared" si="2"/>
+        <v>0.52619518484246131</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
         <v>-169.8</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18">
         <v>260</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="18">
+        <f t="shared" si="9"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99656242696478503</v>
+      </c>
+      <c r="N29" s="18">
         <f t="shared" si="3"/>
-        <v>4.5378560551852569</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24">
-        <f>SIN(I29-3.05)</f>
-        <v>0.99656242696478503</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="0"/>
         <v>8.2845212064775131E-2</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O29" s="17">
+        <f t="shared" si="4"/>
+        <v>0.24828416770948564</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="6"/>
+        <v>1.429860242095317E-2</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8597204841906341E-2</v>
+      </c>
       <c r="R29" s="17"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
@@ -19455,41 +20803,53 @@
       <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="24">
-        <f>0.5*M30</f>
+      <c r="B30" s="18">
+        <f t="shared" si="0"/>
         <v>0.4979041622695306</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24">
+      <c r="C30" s="18">
+        <f t="shared" si="2"/>
+        <v>0.53175743973789869</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18">
         <v>-167.83</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18">
         <v>270</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="18">
+        <f t="shared" si="9"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99580832453906121</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="3"/>
-        <v>4.7123889803846897</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24">
-        <f>SIN(I30-3.05)</f>
-        <v>0.99580832453906121</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" si="0"/>
         <v>-9.1464642232437013E-2</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O30" s="17">
+        <f t="shared" si="4"/>
+        <v>0.24790855480532306</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="6"/>
+        <v>1.7428709955640938E-2</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4857419911281877E-2</v>
+      </c>
       <c r="R30" s="17"/>
       <c r="S30" s="16" t="s">
         <v>7</v>
@@ -19503,41 +20863,53 @@
       <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="24">
-        <f>0.5*M31</f>
+      <c r="B31" s="18">
+        <f t="shared" si="0"/>
         <v>0.48239854503777208</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24">
+      <c r="C31" s="18">
+        <f t="shared" si="2"/>
+        <v>0.72173569863113152</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
         <v>-160.5</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18">
         <v>280</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="18">
+        <f t="shared" si="9"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18">
+        <f t="shared" si="1"/>
+        <v>0.96479709007554415</v>
+      </c>
+      <c r="N31" s="18">
         <f t="shared" si="3"/>
-        <v>4.8869219055841224</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24">
-        <f>SIN(I31-3.05)</f>
-        <v>0.96479709007554415</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" si="0"/>
         <v>-0.26299538965875874</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O31" s="17">
+        <f t="shared" si="4"/>
+        <v>0.23270835625455941</v>
+      </c>
+      <c r="P31" s="17">
+        <f t="shared" si="6"/>
+        <v>0.14409703121200401</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="7"/>
+        <v>0.28819406242400802</v>
+      </c>
       <c r="R31" s="17"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -19551,41 +20923,53 @@
       <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="24">
-        <f>0.5*M32</f>
+      <c r="B32" s="18">
+        <f t="shared" si="0"/>
         <v>0.45223549212048275</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24">
+      <c r="C32" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98110546567423818</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <v>-148.11000000000001</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18">
         <v>290</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="18">
+        <f t="shared" si="9"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18">
+        <f t="shared" si="1"/>
+        <v>0.9044709842409655</v>
+      </c>
+      <c r="N32" s="18">
         <f t="shared" si="3"/>
-        <v>5.0614548307835561</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24">
-        <f>SIN(I32-3.05)</f>
-        <v>0.9044709842409655</v>
-      </c>
-      <c r="N32" s="24">
-        <f t="shared" si="0"/>
         <v>-0.42653515525238844</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20451694033345522</v>
+      </c>
+      <c r="P32" s="17">
+        <f t="shared" si="6"/>
+        <v>0.37902549722120427</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="7"/>
+        <v>0.75805099444240853</v>
+      </c>
       <c r="R32" s="17"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16">
@@ -19603,41 +20987,53 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="24">
-        <f>0.5*M33</f>
+      <c r="B33" s="18">
+        <f t="shared" si="0"/>
         <v>0.40833149261731361</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24">
+      <c r="C33" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2467923417627951</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18">
         <v>-130.88</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18">
         <v>300</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="18">
+        <f t="shared" si="9"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18">
+        <f t="shared" si="1"/>
+        <v>0.81666298523462721</v>
+      </c>
+      <c r="N33" s="18">
         <f t="shared" si="3"/>
-        <v>5.2359877559829888</v>
-      </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24">
-        <f>SIN(I33-3.05)</f>
-        <v>0.81666298523462721</v>
-      </c>
-      <c r="N33" s="24">
-        <f t="shared" si="0"/>
         <v>-0.57711486599087636</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O33" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16673460786308325</v>
+      </c>
+      <c r="P33" s="17">
+        <f t="shared" si="6"/>
+        <v>0.69387826780763573</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="7"/>
+        <v>1.3877565356152715</v>
+      </c>
       <c r="R33" s="17"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -19651,41 +21047,53 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="24">
-        <f>0.5*M34</f>
+      <c r="B34" s="18">
+        <f t="shared" si="0"/>
         <v>0.35202054733667248</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24">
+      <c r="C34" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4917363607421912</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18">
         <v>-110.54</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18">
         <v>310</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="18">
+        <f t="shared" si="9"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18">
+        <f t="shared" si="1"/>
+        <v>0.70404109467334497</v>
+      </c>
+      <c r="N34" s="18">
         <f t="shared" si="3"/>
-        <v>5.4105206811824216</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24">
-        <f>SIN(I34-3.05)</f>
-        <v>0.70404109467334497</v>
-      </c>
-      <c r="N34" s="24">
-        <f t="shared" si="0"/>
         <v>-0.71015923356044464</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="17">
+        <f t="shared" si="4"/>
+        <v>0.12391846574721048</v>
+      </c>
+      <c r="P34" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0506794521065732</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="7"/>
+        <v>2.1013589042131464</v>
+      </c>
       <c r="R34" s="17"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -19697,41 +21105,53 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="24">
-        <f>0.5*M35</f>
+      <c r="B35" s="18">
+        <f t="shared" si="0"/>
         <v>0.28501363585619854</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24">
+      <c r="C35" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7011819113656808</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18">
         <v>-87.66</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24">
+      <c r="G35" s="18"/>
+      <c r="H35" s="18">
         <v>320</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="18">
+        <f t="shared" si="9"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18">
+        <f t="shared" si="1"/>
+        <v>0.57002727171239709</v>
+      </c>
+      <c r="N35" s="18">
         <f t="shared" si="3"/>
-        <v>5.5850536063818543</v>
-      </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24">
-        <f>SIN(I35-3.05)</f>
-        <v>0.57002727171239709</v>
-      </c>
-      <c r="N35" s="24">
-        <f t="shared" si="0"/>
         <v>-0.82162577217619037</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O35" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1232772623969746E-2</v>
+      </c>
+      <c r="P35" s="17">
+        <f t="shared" si="6"/>
+        <v>1.4063935614669107</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8127871229338215</v>
+      </c>
       <c r="R35" s="17"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -19743,41 +21163,53 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="24">
-        <f>0.5*M36</f>
+      <c r="B36" s="18">
+        <f t="shared" si="0"/>
         <v>0.20934672927409273</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24">
+      <c r="C36" s="18">
+        <f t="shared" si="2"/>
+        <v>1.865491490759223</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18">
         <v>-59.77</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24">
+      <c r="G36" s="18"/>
+      <c r="H36" s="18">
         <v>330</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="18">
+        <f t="shared" si="9"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18">
+        <f t="shared" si="1"/>
+        <v>0.41869345854818546</v>
+      </c>
+      <c r="N36" s="18">
         <f t="shared" si="3"/>
-        <v>5.7595865315812871</v>
-      </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24">
-        <f>SIN(I36-3.05)</f>
-        <v>0.41869345854818546</v>
-      </c>
-      <c r="N36" s="24">
-        <f t="shared" si="0"/>
         <v>-0.90812762746706421</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O36" s="17">
+        <f t="shared" si="4"/>
+        <v>4.3826053057760272E-2</v>
+      </c>
+      <c r="P36" s="17">
+        <f t="shared" si="6"/>
+        <v>1.7181162245186543</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4362324490373086</v>
+      </c>
       <c r="R36" s="17"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -19789,41 +21221,53 @@
       <c r="Z36" s="16"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="24">
-        <f>0.5*M37</f>
+      <c r="B37" s="18">
+        <f t="shared" si="0"/>
         <v>0.12731892825754962</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24">
+      <c r="C37" s="18">
+        <f t="shared" si="2"/>
+        <v>1.97805669398405</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18">
         <v>-32.369999999999997</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
         <v>340</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="18">
         <f>RADIANS(H37)</f>
         <v>5.9341194567807207</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24">
-        <f>SIN(I37-3.05)</f>
+      <c r="J37" s="25"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18">
+        <f t="shared" si="1"/>
         <v>0.25463785651509924</v>
       </c>
-      <c r="N37" s="24">
-        <f t="shared" si="0"/>
+      <c r="N37" s="18">
+        <f t="shared" si="3"/>
         <v>-0.9670364843321041</v>
       </c>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="17">
+        <f t="shared" si="4"/>
+        <v>1.6210109492651066E-2</v>
+      </c>
+      <c r="P37" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9482490875612295</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="7"/>
+        <v>3.896498175122459</v>
+      </c>
       <c r="R37" s="17"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -19835,41 +21279,53 @@
       <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="24">
-        <f>0.5*M38</f>
+      <c r="B38" s="18">
+        <f t="shared" si="0"/>
         <v>4.14226060323876E-2</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24">
+      <c r="C38" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0346462331607551</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18">
         <v>-5.85</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24">
+      <c r="G38" s="18"/>
+      <c r="H38" s="18">
         <v>350</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="18">
         <f>RADIANS(H38)</f>
         <v>6.1086523819801535</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24">
-        <f>SIN(I38-3.05)</f>
+      <c r="J38" s="26"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
+        <f t="shared" si="1"/>
         <v>8.2845212064775201E-2</v>
       </c>
-      <c r="N38" s="24">
-        <f t="shared" si="0"/>
+      <c r="N38" s="18">
+        <f t="shared" si="3"/>
         <v>-0.99656242696478503</v>
       </c>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O38" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7158322905143936E-3</v>
+      </c>
+      <c r="P38" s="17">
+        <f t="shared" si="6"/>
+        <v>2.0690347309123678</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="7"/>
+        <v>4.1380694618247356</v>
+      </c>
       <c r="R38" s="17"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -20006,7 +21462,7 @@
         <v>40</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C75" si="4">RADIANS(B46)</f>
+        <f t="shared" ref="C46:C75" si="10">RADIANS(B46)</f>
         <v>0.69813170079773179</v>
       </c>
       <c r="D46">
@@ -20026,7 +21482,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="D47">
@@ -20046,7 +21502,7 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="D48">
@@ -20066,7 +21522,7 @@
         <v>70</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="D49">
@@ -20086,7 +21542,7 @@
         <v>80</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="D50">
@@ -20106,7 +21562,7 @@
         <v>90</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="D51">
@@ -20126,7 +21582,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.7453292519943295</v>
       </c>
       <c r="D52">
@@ -20146,7 +21602,7 @@
         <v>110</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9198621771937625</v>
       </c>
       <c r="D53">
@@ -20166,7 +21622,7 @@
         <v>120</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="D54">
@@ -20186,7 +21642,7 @@
         <v>130</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2689280275926285</v>
       </c>
       <c r="D55">
@@ -20206,7 +21662,7 @@
         <v>140</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.4434609527920612</v>
       </c>
       <c r="D56">
@@ -20219,7 +21675,7 @@
         <v>150</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="D57">
@@ -20231,7 +21687,7 @@
         <v>160</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.7925268031909272</v>
       </c>
       <c r="D58">
@@ -20243,7 +21699,7 @@
         <v>170</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.9670597283903604</v>
       </c>
       <c r="D59">
@@ -20255,7 +21711,7 @@
         <v>180</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="D60">
@@ -20267,7 +21723,7 @@
         <v>190</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.3161255787892263</v>
       </c>
       <c r="D61">
@@ -20279,7 +21735,7 @@
         <v>200</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4906585039886591</v>
       </c>
       <c r="D62">
@@ -20291,7 +21747,7 @@
         <v>210</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.6651914291880923</v>
       </c>
       <c r="D63">
@@ -20303,7 +21759,7 @@
         <v>220</v>
       </c>
       <c r="C64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.839724354387525</v>
       </c>
       <c r="D64">
@@ -20315,7 +21771,7 @@
         <v>230</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0142572795869578</v>
       </c>
       <c r="D65">
@@ -20327,7 +21783,7 @@
         <v>240</v>
       </c>
       <c r="C66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.1887902047863905</v>
       </c>
       <c r="D66">
@@ -20339,7 +21795,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.3633231299858242</v>
       </c>
       <c r="D67">
@@ -20351,7 +21807,7 @@
         <v>260</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.5378560551852569</v>
       </c>
       <c r="D68">
@@ -20363,7 +21819,7 @@
         <v>270</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="D69">
@@ -20375,7 +21831,7 @@
         <v>280</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.8869219055841224</v>
       </c>
       <c r="D70">
@@ -20387,7 +21843,7 @@
         <v>290</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.0614548307835561</v>
       </c>
       <c r="D71">
@@ -20399,7 +21855,7 @@
         <v>300</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.2359877559829888</v>
       </c>
       <c r="D72">
@@ -20411,7 +21867,7 @@
         <v>310</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.4105206811824216</v>
       </c>
       <c r="D73">
@@ -20423,7 +21879,7 @@
         <v>320</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.5850536063818543</v>
       </c>
       <c r="D74">
@@ -20435,7 +21891,7 @@
         <v>330</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.7595865315812871</v>
       </c>
       <c r="D75">
@@ -20607,13 +22063,13 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
